--- a/uml2es/examples/hr/data/mapping/global-mapping.xlsx
+++ b/uml2es/examples/hr/data/mapping/global-mapping.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Properties:</t>
   </si>
@@ -301,6 +301,33 @@
   </si>
   <si>
     <t>SalaryTable</t>
+  </si>
+  <si>
+    <t>Discovery: Collections - separate with commas or linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: URI Patterns - separate with linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: Sample Data - separate with linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: Alternate Names - separate with linebreaks or commas</t>
+  </si>
+  <si>
+    <t>Linebreak on Mac: Ctrl-Option-Return</t>
+  </si>
+  <si>
+    <t>Linebreak on Windows: Alt-Return</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Fields</t>
   </si>
 </sst>
 </file>
@@ -348,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -384,11 +411,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -405,18 +443,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -427,6 +458,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,7 +821,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -790,30 +830,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -837,7 +877,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -850,7 +890,7 @@
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>70</v>
       </c>
     </row>
@@ -858,12 +898,12 @@
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,19 +913,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
@@ -906,121 +946,164 @@
     <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C9:C15"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C15:C21"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1029,19 +1112,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
@@ -1062,319 +1145,365 @@
     <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="52" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C10:C11 C13:C15"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C16:C17 C19:C21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
